--- a/notebooks_amazon/test_cases_amazon_rotulated/test_cases_amazon_rotulated_NO/summary.xlsx
+++ b/notebooks_amazon/test_cases_amazon_rotulated/test_cases_amazon_rotulated_NO/summary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach1.xlsx" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach2.xlsx" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach3.xlsx" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach4.xlsx" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="approach5.xlsx" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="random.xlsx" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="general_summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="approach1.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="approach2.xlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="approach3.xlsx" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="approach4.xlsx" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="approach5.xlsx" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="random.xlsx" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="general_summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16295,7 +16295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16321,55 +16321,85 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>passando(%)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>falhando</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>falhando(%)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FN</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>FN(%)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FP(%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>VN</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>VN(%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>VP</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>VP(%)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>FN_NO</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>FN_LE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>FN_NO</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>FP_NO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>FP_LE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>FP_TE</t>
         </is>
@@ -16387,37 +16417,67 @@
       <c r="C2" t="n">
         <v>234</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>178</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>140</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>128</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
         <v>94</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>50</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>29</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>49</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Q2" t="n">
         <v>62</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>11</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>29</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>88</v>
       </c>
     </row>
@@ -16433,37 +16493,67 @@
       <c r="C3" t="n">
         <v>247</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>193</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>154</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>148</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>93</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>45</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>14</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
         <v>45</v>
       </c>
-      <c r="K3" t="n">
+      <c r="Q3" t="n">
         <v>95</v>
       </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
         <v>7</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>136</v>
       </c>
     </row>
@@ -16479,37 +16569,67 @@
       <c r="C4" t="n">
         <v>293</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>286</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>185</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>187</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>108</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>99</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>20</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>59</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Q4" t="n">
         <v>106</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>11</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>55</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>121</v>
       </c>
     </row>
@@ -16525,37 +16645,67 @@
       <c r="C5" t="n">
         <v>287</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>273</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>162</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>163</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>125</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>110</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>7</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
         <v>44</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Q5" t="n">
         <v>111</v>
       </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
         <v>40</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>120</v>
       </c>
     </row>
@@ -16571,37 +16721,67 @@
       <c r="C6" t="n">
         <v>309</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>301</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>217</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>201</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>92</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>100</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
         <v>29</v>
       </c>
-      <c r="J6" t="n">
+      <c r="P6" t="n">
         <v>61</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Q6" t="n">
         <v>127</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>27</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>49</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>125</v>
       </c>
     </row>
@@ -16617,37 +16797,67 @@
       <c r="C7" t="n">
         <v>202</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.7</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>120</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>62.7</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>161</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>62.7</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>110</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>62.7</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>41</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>62.7</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>10</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>62.7</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
         <v>14</v>
       </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
         <v>32</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Q7" t="n">
         <v>115</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>26</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>18</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>66</v>
       </c>
     </row>
